--- a/config_vivo/提审配置/game_enter_btn_config.xlsx
+++ b/config_vivo/提审配置/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="251">
   <si>
     <t>id|行号</t>
   </si>
@@ -914,10 +914,6 @@
   </si>
   <si>
     <t>top</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>72#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1656,10 +1652,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1667,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +1998,7 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2013,7 +2009,7 @@
         <v>171</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2024,7 +2020,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>181</v>
@@ -2035,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2047,10 +2043,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2063,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2112,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -2121,10 +2117,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2132,10 +2128,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,10 +2139,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2154,10 +2150,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2170,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2209,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2243,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -2532,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2702,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3297,7 +3293,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3340,7 +3336,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,7 +3353,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,7 +3370,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3391,7 +3387,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3399,7 +3395,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3408,7 +3404,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3416,7 +3412,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3433,7 +3429,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3442,7 +3438,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3450,7 +3446,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3459,7 +3455,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3467,7 +3463,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3476,7 +3472,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3484,7 +3480,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3493,7 +3489,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3501,7 +3497,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3510,7 +3506,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3518,7 +3514,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3527,7 +3523,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3535,7 +3531,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3544,7 +3540,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3552,7 +3548,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3561,7 +3557,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3569,7 +3565,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3578,7 +3574,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3586,7 +3582,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3595,7 +3591,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3603,7 +3599,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3612,7 +3608,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3620,7 +3616,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3629,7 +3625,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3637,7 +3633,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3646,7 +3642,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3861,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3913,9 +3909,7 @@
       <c r="B4" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>191</v>
-      </c>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3984,7 +3978,7 @@
         <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -4005,7 +3999,7 @@
         <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>

--- a/config_vivo/提审配置/game_enter_btn_config.xlsx
+++ b/config_vivo/提审配置/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="255">
   <si>
     <t>id|行号</t>
   </si>
@@ -1151,6 +1151,22 @@
   </si>
   <si>
     <t>签到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_zdkp",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼自动开炮</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1964,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2047,6 +2063,17 @@
       </c>
       <c r="C6" s="6" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2164,13 +2191,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3643,6 +3670,23 @@
       </c>
       <c r="E86" s="6" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/config_vivo/提审配置/game_enter_btn_config.xlsx
+++ b/config_vivo/提审配置/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1046,10 +1046,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40#43#79#72</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>74#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1167,6 +1163,10 @@
   </si>
   <si>
     <t>3D捕鱼自动开炮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#43#79</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1982,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2014,7 +2014,7 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2050,7 +2050,7 @@
         <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2070,15 +2070,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2135,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -2193,11 +2194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87:E87"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2232,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2555,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2725,7 +2726,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3320,7 +3321,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3380,7 +3381,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3397,7 +3398,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3414,7 +3415,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3422,7 +3423,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3431,7 +3432,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3439,7 +3440,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3456,7 +3457,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3465,7 +3466,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3482,7 +3483,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3567,7 +3568,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3575,7 +3576,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3601,7 +3602,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3626,7 +3627,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3635,7 +3636,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3643,7 +3644,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3652,7 +3653,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3660,7 +3661,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3669,7 +3670,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3677,7 +3678,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3686,7 +3687,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +4023,7 @@
         <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -4043,7 +4044,7 @@
         <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
